--- a/Phenoloxidase Activity data/48. AEG 48 (91180).xlsx
+++ b/Phenoloxidase Activity data/48. AEG 48 (91180).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,6 +214,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -418,11 +419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237978000"/>
-        <c:axId val="239530144"/>
+        <c:axId val="244402568"/>
+        <c:axId val="244403352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237978000"/>
+        <c:axId val="244402568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,12 +480,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239530144"/>
+        <c:crossAx val="244403352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239530144"/>
+        <c:axId val="244403352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237978000"/>
+        <c:crossAx val="244402568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -798,11 +799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240688000"/>
-        <c:axId val="240691528"/>
+        <c:axId val="246140064"/>
+        <c:axId val="246136928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240688000"/>
+        <c:axId val="246140064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,12 +860,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240691528"/>
+        <c:crossAx val="246136928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240691528"/>
+        <c:axId val="246136928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240688000"/>
+        <c:crossAx val="246140064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1178,11 +1179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240685256"/>
-        <c:axId val="240687216"/>
+        <c:axId val="246140848"/>
+        <c:axId val="245959832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240685256"/>
+        <c:axId val="246140848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,12 +1240,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240687216"/>
+        <c:crossAx val="245959832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240687216"/>
+        <c:axId val="245959832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240685256"/>
+        <c:crossAx val="246140848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1558,11 +1559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240686824"/>
-        <c:axId val="240688392"/>
+        <c:axId val="245960616"/>
+        <c:axId val="245957088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240686824"/>
+        <c:axId val="245960616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,12 +1620,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240688392"/>
+        <c:crossAx val="245957088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240688392"/>
+        <c:axId val="245957088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240686824"/>
+        <c:crossAx val="245960616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1745,7 +1746,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1938,11 +1938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240690352"/>
-        <c:axId val="240689176"/>
+        <c:axId val="294079976"/>
+        <c:axId val="294080368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240690352"/>
+        <c:axId val="294079976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,12 +1999,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240689176"/>
+        <c:crossAx val="294080368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240689176"/>
+        <c:axId val="294080368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240690352"/>
+        <c:crossAx val="294079976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2125,7 +2125,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2318,11 +2317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240690744"/>
-        <c:axId val="240691136"/>
+        <c:axId val="294078800"/>
+        <c:axId val="294080760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240690744"/>
+        <c:axId val="294078800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,12 +2378,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240691136"/>
+        <c:crossAx val="294080760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240691136"/>
+        <c:axId val="294080760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240690744"/>
+        <c:crossAx val="294078800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2505,7 +2504,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2698,11 +2696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281408536"/>
-        <c:axId val="281408144"/>
+        <c:axId val="294081544"/>
+        <c:axId val="294078408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281408536"/>
+        <c:axId val="294081544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,12 +2757,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281408144"/>
+        <c:crossAx val="294078408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281408144"/>
+        <c:axId val="294078408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,7 +2819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281408536"/>
+        <c:crossAx val="294081544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2885,7 +2883,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3078,11 +3075,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281410496"/>
-        <c:axId val="281409712"/>
+        <c:axId val="294081936"/>
+        <c:axId val="294179520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281410496"/>
+        <c:axId val="294081936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3139,12 +3136,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281409712"/>
+        <c:crossAx val="294179520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281409712"/>
+        <c:axId val="294179520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3201,7 +3198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281410496"/>
+        <c:crossAx val="294081936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3265,7 +3262,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3458,11 +3454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281410104"/>
-        <c:axId val="281410888"/>
+        <c:axId val="294177952"/>
+        <c:axId val="294179912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281410104"/>
+        <c:axId val="294177952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3519,12 +3515,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281410888"/>
+        <c:crossAx val="294179912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281410888"/>
+        <c:axId val="294179912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,7 +3577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281410104"/>
+        <c:crossAx val="294177952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3645,7 +3641,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3838,11 +3833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="282205328"/>
-        <c:axId val="282206112"/>
+        <c:axId val="294178344"/>
+        <c:axId val="294183048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="282205328"/>
+        <c:axId val="294178344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,12 +3894,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282206112"/>
+        <c:crossAx val="294183048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="282206112"/>
+        <c:axId val="294183048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3961,7 +3956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282205328"/>
+        <c:crossAx val="294178344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4025,6 +4020,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4229,11 +4225,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239529360"/>
-        <c:axId val="239523088"/>
+        <c:axId val="244404136"/>
+        <c:axId val="416408048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239529360"/>
+        <c:axId val="244404136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4290,12 +4286,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239523088"/>
+        <c:crossAx val="416408048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239523088"/>
+        <c:axId val="416408048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4352,7 +4348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239529360"/>
+        <c:crossAx val="244404136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4416,6 +4412,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4620,11 +4617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239529752"/>
-        <c:axId val="239528184"/>
+        <c:axId val="416411184"/>
+        <c:axId val="416413536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239529752"/>
+        <c:axId val="416411184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4681,12 +4678,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239528184"/>
+        <c:crossAx val="416413536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239528184"/>
+        <c:axId val="416413536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,7 +4740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239529752"/>
+        <c:crossAx val="416411184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4807,7 +4804,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5012,11 +5008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239523480"/>
-        <c:axId val="239524656"/>
+        <c:axId val="416412360"/>
+        <c:axId val="416410400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239523480"/>
+        <c:axId val="416412360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5073,12 +5069,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239524656"/>
+        <c:crossAx val="416410400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239524656"/>
+        <c:axId val="416410400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5135,7 +5131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239523480"/>
+        <c:crossAx val="416412360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5199,7 +5195,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5404,11 +5399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239526616"/>
-        <c:axId val="239530536"/>
+        <c:axId val="416408440"/>
+        <c:axId val="416413928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239526616"/>
+        <c:axId val="416408440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5465,12 +5460,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239530536"/>
+        <c:crossAx val="416413928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239530536"/>
+        <c:axId val="416413928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5527,7 +5522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239526616"/>
+        <c:crossAx val="416408440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5591,7 +5586,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5796,11 +5790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239523872"/>
-        <c:axId val="239526224"/>
+        <c:axId val="416413144"/>
+        <c:axId val="416414320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239523872"/>
+        <c:axId val="416413144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5857,12 +5851,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239526224"/>
+        <c:crossAx val="416414320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239526224"/>
+        <c:axId val="416414320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5919,7 +5913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239523872"/>
+        <c:crossAx val="416413144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5983,7 +5977,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6188,11 +6181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239527792"/>
-        <c:axId val="239528576"/>
+        <c:axId val="416407656"/>
+        <c:axId val="416409224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239527792"/>
+        <c:axId val="416407656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6249,12 +6242,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239528576"/>
+        <c:crossAx val="416409224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239528576"/>
+        <c:axId val="416409224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6311,7 +6304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239527792"/>
+        <c:crossAx val="416407656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6375,7 +6368,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6580,11 +6572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240687608"/>
-        <c:axId val="240692312"/>
+        <c:axId val="416410008"/>
+        <c:axId val="416411576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240687608"/>
+        <c:axId val="416410008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6641,12 +6633,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240692312"/>
+        <c:crossAx val="416411576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240692312"/>
+        <c:axId val="416411576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6703,7 +6695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240687608"/>
+        <c:crossAx val="416410008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6767,7 +6759,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6972,11 +6963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240685648"/>
-        <c:axId val="240691920"/>
+        <c:axId val="246140456"/>
+        <c:axId val="246136536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240685648"/>
+        <c:axId val="246140456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7033,12 +7024,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240691920"/>
+        <c:crossAx val="246136536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240691920"/>
+        <c:axId val="246136536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7095,7 +7086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240685648"/>
+        <c:crossAx val="246140456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20852,7 +20843,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21099,9 +21090,6 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10">
-        <v>-0.18068806013298641</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
@@ -21330,9 +21318,6 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
-      <c r="J20">
-        <v>1.7875704269645067</v>
-      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22"/>
